--- a/employees.xlsx
+++ b/employees.xlsx
@@ -487,208 +487,185 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jane Smith</t>
+          <t>Michael Johnson</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Marketing Manager</t>
+          <t>Sales Executive</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>90000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Michael Johnson</t>
+          <t>Emily Brown</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sales Executive</t>
+          <t>HR Manager</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>75000</v>
+        <v>85000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Emily Brown</t>
+          <t>David Wilson</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HR Manager</t>
+          <t>Financial Analyst</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>85000</v>
+        <v>82000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>David Wilson</t>
+          <t>Sarah Lee</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Financial Analyst</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>82000</v>
+        <v>85000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sarah Lee</t>
+          <t>Kevin Davis</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>Marketing Specialist</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>85000</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Kevin Davis</t>
+          <t>Anna Taylor</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Marketing Specialist</t>
+          <t>Sales Manager</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>70000</v>
+        <v>95000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Anna Taylor</t>
+          <t>Daniel Clark</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sales Manager</t>
+          <t>HR Assistant</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>95000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Daniel Clark</t>
+          <t>Olivia Garcia</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>HR Assistant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>110</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Olivia Garcia</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Finance Manager</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
         <v>88000</v>
       </c>
     </row>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Taryn</t>
   </si>
@@ -24,6 +24,15 @@
   </si>
   <si>
     <t>sdet</t>
+  </si>
+  <si>
+    <t>popke</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>sw</t>
   </si>
 </sst>
 </file>
@@ -487,186 +496,180 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Michael Johnson</t>
+          <t>Emily Brown</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sales Executive</t>
+          <t>HR Manager</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>75000</v>
+        <v>85000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Emily Brown</t>
+          <t>David Wilson</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HR Manager</t>
+          <t>Financial Analyst</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>85000</v>
+        <v>82000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>David Wilson</t>
+          <t>Sarah Lee</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Financial Analyst</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>82000</v>
+        <v>85000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sarah Lee</t>
+          <t>Kevin Davis</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>Marketing Specialist</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>85000</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kevin Davis</t>
+          <t>Anna Taylor</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Marketing Specialist</t>
+          <t>Sales Manager</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>70000</v>
+        <v>95000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Anna Taylor</t>
+          <t>Daniel Clark</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sales Manager</t>
+          <t>HR Assistant</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>95000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Daniel Clark</t>
+          <t>Olivia Garcia</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HR Assistant</t>
+          <t>Finance Manager</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>60000</v>
+        <v>88000</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>110</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Olivia Garcia</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Finance Manager</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>88000</v>
+      <c r="A10">
+        <v>103</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>10911</v>
       </c>
     </row>
   </sheetData>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Taryn</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>sw</t>
+  </si>
+  <si>
+    <t>legend</t>
   </si>
 </sst>
 </file>
@@ -672,6 +675,23 @@
         <v>10911</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11">
+        <v>200</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>6978</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Taryn</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>legend</t>
+  </si>
+  <si>
+    <t>xyz</t>
   </si>
 </sst>
 </file>
@@ -692,6 +695,74 @@
         <v>6978</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12">
+        <v>201340</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>6978</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>123</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>6978</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>144</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>6978</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>144</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>6978</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
